--- a/insurance-drools/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,14 +137,6 @@
   </si>
   <si>
     <t>室内工作不推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceResult.InsuranceEnum.SAVING, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +265,40 @@
   </si>
   <si>
     <t>SelfWorkInfo.IndustryEnum.FREEDOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>com.neo.drools.model.fact.InsuranceResult res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.SAVING, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.SAVING</t>
+  </si>
+  <si>
+    <t>res.setInsurance($1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.neo.drools.model.fact.InsuranceResult res2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res2.setInsurance($1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.ACCIDENT, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceResult.InsuranceEnum.ACCIDENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +747,11 @@
     <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="53.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -740,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -756,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -764,194 +791,224 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8"/>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
